--- a/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_99.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_7_percent_water_99.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.66940206452797</v>
+        <v>91.79837613166278</v>
       </c>
       <c r="D2" t="n">
-        <v>18.19293278463248</v>
+        <v>17.91762007663026</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>91.79814920316217</v>
+        <v>92.14906407341984</v>
       </c>
       <c r="D3" t="n">
-        <v>17.23460747813063</v>
+        <v>17.84048247548435</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.4695336564689</v>
+        <v>89.62569150297954</v>
       </c>
       <c r="D4" t="n">
-        <v>20.12291525299536</v>
+        <v>16.82571982441097</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.17707959087252</v>
+        <v>93.19616222821389</v>
       </c>
       <c r="D5" t="n">
-        <v>19.21490929981692</v>
+        <v>18.59562663532525</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>90.67473164153257</v>
+        <v>85.69312316297794</v>
       </c>
       <c r="D6" t="n">
-        <v>18.4883531826228</v>
+        <v>17.22974559376924</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>89.66895503893295</v>
+        <v>85.35700620804437</v>
       </c>
       <c r="D7" t="n">
-        <v>18.07613793736663</v>
+        <v>19.86827245921351</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>89.66182553842572</v>
+        <v>82.88065311366049</v>
       </c>
       <c r="D8" t="n">
-        <v>20.85508006259237</v>
+        <v>17.60704769248966</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>88.60213750347762</v>
+        <v>80.5806013269445</v>
       </c>
       <c r="D9" t="n">
-        <v>18.03174173750971</v>
+        <v>18.50187384833058</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>83.45970754062371</v>
+        <v>81.39772642968155</v>
       </c>
       <c r="D10" t="n">
-        <v>17.40103088176023</v>
+        <v>16.51561308252911</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>82.6502888204694</v>
+        <v>85.26698103867245</v>
       </c>
       <c r="D11" t="n">
-        <v>21.79721115805907</v>
+        <v>16.08441434510507</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>82.25609798434775</v>
+        <v>81.67383407095718</v>
       </c>
       <c r="D12" t="n">
-        <v>19.23672666943033</v>
+        <v>18.52876530019148</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>76.12061545464593</v>
+        <v>75.66000573986804</v>
       </c>
       <c r="D13" t="n">
-        <v>19.03155432136164</v>
+        <v>16.40431418635606</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.35695064783633</v>
+        <v>78.23864558975862</v>
       </c>
       <c r="D14" t="n">
-        <v>19.61774825662052</v>
+        <v>20.1126103544527</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.88492733528649</v>
+        <v>77.62699946130175</v>
       </c>
       <c r="D15" t="n">
-        <v>18.07812121822581</v>
+        <v>18.06253798977592</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>79.70627580101076</v>
+        <v>78.47618171330363</v>
       </c>
       <c r="D16" t="n">
-        <v>17.98548465453378</v>
+        <v>17.07537609715816</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.34488174220668</v>
+        <v>75.03520162770229</v>
       </c>
       <c r="D17" t="n">
-        <v>18.58590702381998</v>
+        <v>18.12353338694743</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.14556490782506</v>
+        <v>74.94378800707641</v>
       </c>
       <c r="D18" t="n">
-        <v>19.1221371940819</v>
+        <v>18.43393911654709</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.31682421176491</v>
+        <v>72.71358802893407</v>
       </c>
       <c r="D19" t="n">
-        <v>18.53398341936474</v>
+        <v>18.7225181569335</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>74.42929802569236</v>
+        <v>73.05778350536309</v>
       </c>
       <c r="D20" t="n">
-        <v>17.35783313225829</v>
+        <v>18.29912131551416</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>73.35300002876464</v>
+        <v>72.56822199405232</v>
       </c>
       <c r="D21" t="n">
-        <v>17.77233630622157</v>
+        <v>18.43056866991555</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>72.96728923508232</v>
+        <v>71.49661720706321</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28540507740351</v>
+        <v>18.37001729462969</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>70.53687431697358</v>
+        <v>70.42784613210689</v>
       </c>
       <c r="D23" t="n">
-        <v>20.49305695676246</v>
+        <v>18.59803099955029</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>69.21606599527442</v>
+        <v>68.09994243007969</v>
       </c>
       <c r="D24" t="n">
-        <v>19.24467319038719</v>
+        <v>18.57630711097827</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>64.53541748049074</v>
+        <v>68.93801713617644</v>
       </c>
       <c r="D25" t="n">
-        <v>17.85708663402006</v>
+        <v>16.7597168649699</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>63.84789579573253</v>
+        <v>71.4886811566209</v>
       </c>
       <c r="D26" t="n">
-        <v>18.83044824452058</v>
+        <v>15.60832197572033</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.29363214676272</v>
+        <v>66.18974652347724</v>
       </c>
       <c r="D27" t="n">
-        <v>20.32431889953898</v>
+        <v>20.01815025197192</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.46280230354486</v>
+        <v>62.53781795768431</v>
       </c>
       <c r="D28" t="n">
-        <v>19.43664980275038</v>
+        <v>20.3139807112558</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>67.92179162359173</v>
+        <v>63.38489096588491</v>
       </c>
       <c r="D29" t="n">
-        <v>18.54934274365538</v>
+        <v>19.05381840533536</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>60.54618393161493</v>
+        <v>64.8116009493195</v>
       </c>
       <c r="D30" t="n">
-        <v>19.85322650262352</v>
+        <v>16.2305946219418</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.23062741626788</v>
+        <v>61.96641255481978</v>
       </c>
       <c r="D31" t="n">
-        <v>17.34154664476184</v>
+        <v>17.57432634887751</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.76528252560399</v>
+        <v>62.28644887339348</v>
       </c>
       <c r="D32" t="n">
-        <v>20.64288770032797</v>
+        <v>18.19849410933776</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>60.4964100270637</v>
+        <v>61.88672077006371</v>
       </c>
       <c r="D33" t="n">
-        <v>17.6186142532326</v>
+        <v>20.05982730978301</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>60.53731763509313</v>
+        <v>59.10891250156279</v>
       </c>
       <c r="D34" t="n">
-        <v>19.81571290318192</v>
+        <v>16.99442159515105</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>56.91304414865434</v>
+        <v>59.99824351193578</v>
       </c>
       <c r="D35" t="n">
-        <v>18.40127733755561</v>
+        <v>16.34066181632395</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>59.91895030756992</v>
+        <v>57.54919529050313</v>
       </c>
       <c r="D36" t="n">
-        <v>17.71058987591733</v>
+        <v>18.26793361292885</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.58266616711642</v>
+        <v>56.45200338602736</v>
       </c>
       <c r="D37" t="n">
-        <v>20.06898636310185</v>
+        <v>16.68764711582247</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>51.63117505890431</v>
+        <v>50.10258186000013</v>
       </c>
       <c r="D38" t="n">
-        <v>17.35865245435267</v>
+        <v>20.79683862499613</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.20452107982239</v>
+        <v>50.21666815286438</v>
       </c>
       <c r="D39" t="n">
-        <v>17.73257063673584</v>
+        <v>19.83260175077196</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>53.19591344805356</v>
+        <v>50.12095103076879</v>
       </c>
       <c r="D40" t="n">
-        <v>17.94737782041649</v>
+        <v>17.37156786941988</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>48.74721613497027</v>
+        <v>49.85931039900107</v>
       </c>
       <c r="D41" t="n">
-        <v>16.10157016717869</v>
+        <v>17.79148422462255</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.84497384089494</v>
+        <v>50.68943579687365</v>
       </c>
       <c r="D42" t="n">
-        <v>17.86401496879911</v>
+        <v>17.83711524113954</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>47.65881667887681</v>
+        <v>52.03341732164584</v>
       </c>
       <c r="D43" t="n">
-        <v>19.32797395278669</v>
+        <v>19.07047560919066</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.98801390044439</v>
+        <v>48.27902353354386</v>
       </c>
       <c r="D44" t="n">
-        <v>17.76695127488477</v>
+        <v>21.21872308786752</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.95908360587465</v>
+        <v>47.69539215899034</v>
       </c>
       <c r="D45" t="n">
-        <v>18.66552468398433</v>
+        <v>18.39416313943303</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.82892086082364</v>
+        <v>44.51889259631069</v>
       </c>
       <c r="D46" t="n">
-        <v>18.59286850686271</v>
+        <v>19.3609886633025</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.78451224215271</v>
+        <v>43.52808900160445</v>
       </c>
       <c r="D47" t="n">
-        <v>18.59454977829477</v>
+        <v>19.04659800393235</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.85718687248921</v>
+        <v>44.97604769853412</v>
       </c>
       <c r="D48" t="n">
-        <v>19.52502318663364</v>
+        <v>17.44827372984318</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.26479252965424</v>
+        <v>42.33691704741029</v>
       </c>
       <c r="D49" t="n">
-        <v>17.81116290048343</v>
+        <v>16.26806613942366</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>46.4107948902349</v>
+        <v>41.75414218161407</v>
       </c>
       <c r="D50" t="n">
-        <v>20.00544955223971</v>
+        <v>19.00497414193693</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>39.89881001019533</v>
+        <v>40.44157917432806</v>
       </c>
       <c r="D51" t="n">
-        <v>19.1366782064171</v>
+        <v>19.53344916861612</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.69321233403683</v>
+        <v>37.73477626421675</v>
       </c>
       <c r="D52" t="n">
-        <v>19.21353098671478</v>
+        <v>17.32759168410228</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>40.80185012135777</v>
+        <v>40.70918479883149</v>
       </c>
       <c r="D53" t="n">
-        <v>20.20572057010967</v>
+        <v>18.81113232391696</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.18525923502968</v>
+        <v>35.73249355098618</v>
       </c>
       <c r="D54" t="n">
-        <v>19.82443157393302</v>
+        <v>17.10651778357585</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.9651254442423</v>
+        <v>37.1037684796193</v>
       </c>
       <c r="D55" t="n">
-        <v>15.73035392145</v>
+        <v>18.5309342887729</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>37.53935997822039</v>
+        <v>34.70596405686047</v>
       </c>
       <c r="D56" t="n">
-        <v>17.79502320588427</v>
+        <v>18.46085781068232</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.05750825742809</v>
+        <v>36.69949773887549</v>
       </c>
       <c r="D57" t="n">
-        <v>15.61627932494474</v>
+        <v>18.25060717407472</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>32.9741336468533</v>
+        <v>32.97381207671642</v>
       </c>
       <c r="D58" t="n">
-        <v>17.92454986303431</v>
+        <v>17.07914304177459</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>33.1358780664092</v>
+        <v>33.89546936523864</v>
       </c>
       <c r="D59" t="n">
-        <v>16.29126107733768</v>
+        <v>16.85811319432727</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.20671531073081</v>
+        <v>33.10913652776172</v>
       </c>
       <c r="D60" t="n">
-        <v>17.19795681325159</v>
+        <v>19.67436269800309</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>29.98567762406358</v>
+        <v>30.86335646289707</v>
       </c>
       <c r="D61" t="n">
-        <v>16.670852734971</v>
+        <v>16.20698970221747</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>32.74805671072856</v>
+        <v>31.12277732371781</v>
       </c>
       <c r="D62" t="n">
-        <v>19.22599755149282</v>
+        <v>19.45846868441488</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.5903507336863</v>
+        <v>32.28719480789741</v>
       </c>
       <c r="D63" t="n">
-        <v>18.59692412452472</v>
+        <v>16.82248327801253</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>28.13172233230017</v>
+        <v>28.57313595377096</v>
       </c>
       <c r="D64" t="n">
-        <v>16.57600614859399</v>
+        <v>18.61216446091329</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.90031433635313</v>
+        <v>26.01926002254438</v>
       </c>
       <c r="D65" t="n">
-        <v>17.56208364858849</v>
+        <v>16.58261964706788</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.87351364313368</v>
+        <v>25.33465873278244</v>
       </c>
       <c r="D66" t="n">
-        <v>20.55358142530555</v>
+        <v>17.44576215528748</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.15693380475226</v>
+        <v>21.59133644713504</v>
       </c>
       <c r="D67" t="n">
-        <v>18.96293232386094</v>
+        <v>18.02621660179152</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.57603855753799</v>
+        <v>25.52099015147656</v>
       </c>
       <c r="D68" t="n">
-        <v>17.83598612525197</v>
+        <v>18.36510858080582</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.53730184985374</v>
+        <v>24.98696726892321</v>
       </c>
       <c r="D69" t="n">
-        <v>16.53969225799016</v>
+        <v>20.04759576021794</v>
       </c>
     </row>
   </sheetData>
